--- a/Tratamiento a Variables.xlsx
+++ b/Tratamiento a Variables.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mardo\Documents\Repositories\Proyecto-Polifenoles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C525273-69BA-4666-8796-38C9531B0DE0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96018EF9-0915-4F30-A61E-318924436CC0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-1020" windowWidth="29040" windowHeight="15720" xr2:uid="{034F1915-4034-48EB-BB58-54D0E05D6A98}"/>
+    <workbookView xWindow="28680" yWindow="-1020" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{034F1915-4034-48EB-BB58-54D0E05D6A98}"/>
   </bookViews>
   <sheets>
     <sheet name="Replicar" sheetId="1" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="709" uniqueCount="680">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="710" uniqueCount="681">
   <si>
     <t>frec_alcohol_audit</t>
   </si>
@@ -2084,6 +2084,9 @@
   </si>
   <si>
     <t>ESPERAR SIGNIFICADO DE LAS PALABRAS (+) (++) Y TRADUCIR</t>
+  </si>
+  <si>
+    <t>NINGUNA TIENE NULOS</t>
   </si>
 </sst>
 </file>
@@ -2140,7 +2143,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2151,12 +2154,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2166,11 +2163,14 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2508,9 +2508,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1A322F21-957E-4C7E-B617-4712CBC54C89}">
   <dimension ref="A1:A42"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -2518,7 +2516,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="4" t="s">
         <v>8</v>
       </c>
     </row>
@@ -2736,9 +2734,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{166F06B2-CCC4-458B-AB48-916FB3B91EA2}">
   <dimension ref="A1:C411"/>
   <sheetViews>
-    <sheetView topLeftCell="A376" workbookViewId="0">
-      <selection activeCell="A411" sqref="A411"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -2746,7 +2742,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="4" t="s">
         <v>8</v>
       </c>
       <c r="C1" t="s">
@@ -4818,7 +4814,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EF9E1C12-CC63-4020-82EE-914F0329F21F}">
   <dimension ref="A1:A145"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -4826,7 +4822,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="4" t="s">
         <v>8</v>
       </c>
     </row>
@@ -5559,22 +5555,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A05DF8D6-FC28-42E3-A215-A4BF25D82B23}">
   <dimension ref="A1:C44"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="A45" sqref="A45"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B6" sqref="B6:B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="111.85546875" style="2" customWidth="1"/>
-    <col min="2" max="2" width="24" style="9" customWidth="1"/>
+    <col min="2" max="2" width="24" style="3" customWidth="1"/>
     <col min="3" max="3" width="11.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="8" t="s">
+      <c r="B1" s="6" t="s">
         <v>8</v>
       </c>
     </row>
@@ -5582,7 +5578,7 @@
       <c r="A2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="9" t="s">
+      <c r="B2" s="3" t="s">
         <v>6</v>
       </c>
     </row>
@@ -5590,7 +5586,7 @@
       <c r="A3" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="9" t="s">
+      <c r="B3" s="3" t="s">
         <v>9</v>
       </c>
       <c r="C3" t="s">
@@ -5598,62 +5594,62 @@
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="4" t="s">
+      <c r="A4" s="7" t="s">
         <v>117</v>
       </c>
-      <c r="B4" s="9" t="s">
+      <c r="B4" s="3" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="4"/>
-      <c r="B5" s="9" t="s">
+      <c r="A5" s="7"/>
+      <c r="B5" s="3" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" s="4"/>
-      <c r="B6" s="9" t="s">
+      <c r="A6" s="7"/>
+      <c r="B6" s="3" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" s="4"/>
-      <c r="B7" s="9" t="s">
+      <c r="A7" s="7"/>
+      <c r="B7" s="3" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" s="4"/>
-      <c r="B8" s="9" t="s">
+      <c r="A8" s="7"/>
+      <c r="B8" s="3" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" s="4"/>
-      <c r="B9" s="9" t="s">
+      <c r="A9" s="7"/>
+      <c r="B9" s="3" t="s">
         <v>107</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" s="5" t="s">
+      <c r="A10" s="8" t="s">
         <v>278</v>
       </c>
-      <c r="B10" s="9" t="s">
+      <c r="B10" s="3" t="s">
         <v>276</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" s="5"/>
-      <c r="B11" s="9" t="s">
+      <c r="A11" s="8"/>
+      <c r="B11" s="3" t="s">
         <v>277</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A12" s="7" t="s">
+      <c r="A12" s="5" t="s">
         <v>281</v>
       </c>
-      <c r="B12" s="9" t="s">
+      <c r="B12" s="3" t="s">
         <v>280</v>
       </c>
     </row>
@@ -5661,7 +5657,7 @@
       <c r="A13" s="1" t="s">
         <v>306</v>
       </c>
-      <c r="B13" s="9" t="s">
+      <c r="B13" s="3" t="s">
         <v>305</v>
       </c>
     </row>
@@ -5669,193 +5665,193 @@
       <c r="A14" s="2" t="s">
         <v>375</v>
       </c>
-      <c r="B14" s="9" t="s">
+      <c r="B14" s="3" t="s">
         <v>374</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A15" s="10" t="s">
+      <c r="A15" s="8" t="s">
         <v>617</v>
       </c>
-      <c r="B15" s="9" t="s">
+      <c r="B15" s="3" t="s">
         <v>605</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A16" s="3"/>
-      <c r="B16" s="9" t="s">
+      <c r="A16" s="9"/>
+      <c r="B16" s="3" t="s">
         <v>606</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17" s="3"/>
-      <c r="B17" s="9" t="s">
+      <c r="A17" s="9"/>
+      <c r="B17" s="3" t="s">
         <v>607</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A18" s="3"/>
-      <c r="B18" s="9" t="s">
+      <c r="A18" s="9"/>
+      <c r="B18" s="3" t="s">
         <v>608</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A19" s="3"/>
-      <c r="B19" s="9" t="s">
+      <c r="A19" s="9"/>
+      <c r="B19" s="3" t="s">
         <v>609</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A20" s="3"/>
-      <c r="B20" s="9" t="s">
+      <c r="A20" s="9"/>
+      <c r="B20" s="3" t="s">
         <v>610</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A21" s="3"/>
-      <c r="B21" s="9" t="s">
+      <c r="A21" s="9"/>
+      <c r="B21" s="3" t="s">
         <v>611</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A22" s="3"/>
-      <c r="B22" s="9" t="s">
+      <c r="A22" s="9"/>
+      <c r="B22" s="3" t="s">
         <v>612</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A23" s="3"/>
-      <c r="B23" s="9" t="s">
+      <c r="A23" s="9"/>
+      <c r="B23" s="3" t="s">
         <v>613</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A24" s="3"/>
-      <c r="B24" s="9" t="s">
+      <c r="A24" s="9"/>
+      <c r="B24" s="3" t="s">
         <v>614</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A25" s="3"/>
-      <c r="B25" s="9" t="s">
+      <c r="A25" s="9"/>
+      <c r="B25" s="3" t="s">
         <v>615</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A26" s="3"/>
-      <c r="B26" s="9" t="s">
+      <c r="A26" s="9"/>
+      <c r="B26" s="3" t="s">
         <v>616</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A27" s="3" t="s">
+      <c r="A27" s="9" t="s">
         <v>620</v>
       </c>
-      <c r="B27" s="9" t="s">
+      <c r="B27" s="3" t="s">
         <v>618</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A28" s="3"/>
-      <c r="B28" s="9" t="s">
+      <c r="A28" s="9"/>
+      <c r="B28" s="3" t="s">
         <v>619</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A29" s="4" t="s">
+      <c r="A29" s="7" t="s">
         <v>679</v>
       </c>
-      <c r="B29" s="9" t="s">
+      <c r="B29" s="3" t="s">
         <v>152</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A30" s="4"/>
-      <c r="B30" s="9" t="s">
+      <c r="A30" s="7"/>
+      <c r="B30" s="3" t="s">
         <v>153</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A31" s="4"/>
-      <c r="B31" s="9" t="s">
+      <c r="A31" s="7"/>
+      <c r="B31" s="3" t="s">
         <v>154</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A32" s="4"/>
-      <c r="B32" s="9" t="s">
+      <c r="A32" s="7"/>
+      <c r="B32" s="3" t="s">
         <v>155</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A33" s="4"/>
-      <c r="B33" s="9" t="s">
+      <c r="A33" s="7"/>
+      <c r="B33" s="3" t="s">
         <v>156</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A34" s="4"/>
-      <c r="B34" s="9" t="s">
+      <c r="A34" s="7"/>
+      <c r="B34" s="3" t="s">
         <v>157</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A35" s="4"/>
-      <c r="B35" s="9" t="s">
+      <c r="A35" s="7"/>
+      <c r="B35" s="3" t="s">
         <v>158</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A36" s="4"/>
-      <c r="B36" s="9" t="s">
+      <c r="A36" s="7"/>
+      <c r="B36" s="3" t="s">
         <v>159</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A37" s="4"/>
-      <c r="B37" s="9" t="s">
+      <c r="A37" s="7"/>
+      <c r="B37" s="3" t="s">
         <v>160</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A38" s="4"/>
-      <c r="B38" s="9" t="s">
+      <c r="A38" s="7"/>
+      <c r="B38" s="3" t="s">
         <v>161</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A39" s="4"/>
-      <c r="B39" s="9" t="s">
+      <c r="A39" s="7"/>
+      <c r="B39" s="3" t="s">
         <v>162</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A40" s="4"/>
-      <c r="B40" s="9" t="s">
+      <c r="A40" s="7"/>
+      <c r="B40" s="3" t="s">
         <v>163</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A41" s="4"/>
-      <c r="B41" s="9" t="s">
+      <c r="A41" s="7"/>
+      <c r="B41" s="3" t="s">
         <v>164</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A42" s="4"/>
-      <c r="B42" s="9" t="s">
+      <c r="A42" s="7"/>
+      <c r="B42" s="3" t="s">
         <v>165</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A43" s="4"/>
-      <c r="B43" s="9" t="s">
+      <c r="A43" s="7"/>
+      <c r="B43" s="3" t="s">
         <v>166</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A44" s="4"/>
-      <c r="B44" s="9" t="s">
+      <c r="A44" s="7"/>
+      <c r="B44" s="3" t="s">
         <v>167</v>
       </c>
     </row>
@@ -5876,7 +5872,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{332FEAB4-863E-41E4-A175-6724CD0698C2}">
   <dimension ref="A1:D41"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -5884,7 +5882,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="4" t="s">
         <v>8</v>
       </c>
       <c r="D1" t="s">
@@ -5902,6 +5900,9 @@
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>388</v>
+      </c>
+      <c r="D3" t="s">
+        <v>680</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
@@ -6104,7 +6105,7 @@
   <dimension ref="A1:B8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6114,7 +6115,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="4" t="s">
         <v>8</v>
       </c>
     </row>
@@ -6124,7 +6125,7 @@
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="10" t="s">
+      <c r="A3" s="8" t="s">
         <v>651</v>
       </c>
       <c r="B3" s="1" t="s">
@@ -6132,31 +6133,31 @@
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="3"/>
+      <c r="A4" s="9"/>
       <c r="B4" s="1" t="s">
         <v>646</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" s="3"/>
+      <c r="A5" s="9"/>
       <c r="B5" s="1" t="s">
         <v>647</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" s="3"/>
+      <c r="A6" s="9"/>
       <c r="B6" s="1" t="s">
         <v>648</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" s="3"/>
+      <c r="A7" s="9"/>
       <c r="B7" s="1" t="s">
         <v>649</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" s="3"/>
+      <c r="A8" s="9"/>
       <c r="B8" s="1" t="s">
         <v>650</v>
       </c>
